--- a/biology/Botanique/Pouteria/Pouteria.xlsx
+++ b/biology/Botanique/Pouteria/Pouteria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pouteria (autrefois Franchetella, d'après Adrien René Franchet) est un genre de plantes à fleurs de la famille des Sapotaceae dont l'espèce type est Pouteria guianensis Aubl.. Ce sont des arbres largement répandus dans les zones tropicales, principalement pour leurs fruits souvent comestibles, parfois appelés fruits-œufs, comme ceux de P. campechiana et ceux de P. lucuma (la lucuma), ou sapotes (P. sapotia).
 Il est étroitement apparenté au genre Manilkara qui produit lui aussi des fruits comestibles, comme la sapotille.
@@ -512,9 +524,11 @@
           <t>Espèces valides</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre est un « taxon poubelle », qui ne cesse de s'agrandir. Il contient actuellement plus de 150 espèces, et possède une soixantaine de synonymes partiels. Selon The Plant List[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre est un « taxon poubelle », qui ne cesse de s'agrandir. Il contient actuellement plus de 150 espèces, et possède une soixantaine de synonymes partiels. Selon The Plant List :
 Pouteria adolfi-friedericii (Engl.) A.Meeuse
 Pouteria adolfi-friedericii subsp. australis (J.H.Hemsl.) L.Gaut.
 Pouteria adolfi-friedericii subsp. floccosa (J.H.Hemsl.) L.Gaut.
@@ -795,9 +809,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante pour le genre Pouteria[2] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante pour le genre Pouteria : 
 « POUTERIA. (Tabula 33.)
 CAL. Perianthium monophyllum, quadri-partitum, laciniis ovaris, acutis, non deciduis.
 COR. monopetala, tubuloſa ; tubus brevis, calicis fundo inſertus limbus quadri-dentatus ; denticulis acutis, intrà quos fera oblonga erigitur.
